--- a/src/zh/openpyxl/rows_and_columns/Food.xlsx
+++ b/src/zh/openpyxl/rows_and_columns/Food.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fruit" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,8 @@
     <sheet name="Fish" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Cakes" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Sweets" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Sandwich" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Tea" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">苹果</t>
   </si>
@@ -60,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">黑糖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红茶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑茶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿茶</t>
   </si>
 </sst>
 </file>
@@ -111,12 +122,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -145,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,6 +173,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,7 +483,7 @@
   </sheetPr>
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -498,11 +524,88 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="0.886111111111111" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="0.886111111111111" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>